--- a/MotorApp/MasterUploads/NewBulkUpload.xlsx
+++ b/MotorApp/MasterUploads/NewBulkUpload.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guru\Documents\Visual Studio 2019\Projects\MotorApp\MotorApp\Uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThisPc\Documents\GitHub\MotorApp\MotorApp\MasterUploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C54871-D30C-4010-A42E-CADD5F24B11B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A55FB5D2-ECF3-423B-936C-8373A81F23B1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="MasterUpload" sheetId="1" r:id="rId1"/>
@@ -105,7 +104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -530,19 +529,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EDF91B-7B06-4DB5-BA65-0366D41F82A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X2000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="A2" sqref="A2:A3471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5546875" customWidth="1"/>
     <col min="7" max="7" width="32.88671875" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.88671875" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" customWidth="1"/>
     <col min="12" max="12" width="25.21875" customWidth="1"/>
     <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.77734375" bestFit="1" customWidth="1"/>

--- a/MotorApp/MasterUploads/NewBulkUpload.xlsx
+++ b/MotorApp/MasterUploads/NewBulkUpload.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThisPc\Documents\GitHub\MotorApp\MotorApp\MasterUploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guru\Documents\Visual Studio 2019\Projects\MotorApp\MotorApp\Uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C54871-D30C-4010-A42E-CADD5F24B11B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A55FB5D2-ECF3-423B-936C-8373A81F23B1}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterUpload" sheetId="1" r:id="rId1"/>
@@ -104,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -529,20 +530,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EDF91B-7B06-4DB5-BA65-0366D41F82A4}">
   <dimension ref="A1:X2000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3471"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5546875" customWidth="1"/>
     <col min="7" max="7" width="32.88671875" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.109375" customWidth="1"/>
+    <col min="9" max="9" width="40.88671875" customWidth="1"/>
     <col min="12" max="12" width="25.21875" customWidth="1"/>
     <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.77734375" bestFit="1" customWidth="1"/>
